--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r103_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r103_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +789,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +836,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +991,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1038,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1193,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1240,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1371,10 +1395,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1418,28 +1442,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1464,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1660,10 +1684,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1707,28 +1731,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1753,28 +1777,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1862,10 +1886,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1909,28 +1933,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1955,28 +1979,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2064,10 +2088,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2111,28 +2135,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2157,28 +2181,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2353,10 +2377,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2400,28 +2424,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2446,28 +2470,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2555,10 +2579,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2602,28 +2626,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2648,28 +2672,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2786,10 +2810,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2833,28 +2857,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2879,28 +2903,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2988,10 +3012,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3035,28 +3059,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3081,28 +3105,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3190,10 +3214,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3237,28 +3261,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3283,28 +3307,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3392,10 +3416,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3439,28 +3463,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3485,28 +3509,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3623,10 +3647,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3670,28 +3694,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3716,28 +3740,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3825,10 +3849,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3872,28 +3896,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3918,28 +3942,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4027,10 +4051,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4074,28 +4098,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4120,28 +4144,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4229,10 +4253,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4276,28 +4300,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4322,28 +4346,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4431,10 +4455,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4478,28 +4502,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4524,28 +4548,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4633,10 +4657,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4680,28 +4704,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4726,28 +4750,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4835,10 +4859,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4882,28 +4906,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4928,28 +4952,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5037,10 +5061,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5084,28 +5108,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5130,28 +5154,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5384,10 +5408,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5431,28 +5455,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5477,28 +5501,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5644,10 +5668,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5691,28 +5715,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5737,28 +5761,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5875,10 +5899,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5922,28 +5946,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5968,28 +5992,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6106,10 +6130,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6153,28 +6177,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6199,28 +6223,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6308,10 +6332,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6355,28 +6379,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6401,28 +6425,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6510,10 +6534,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6557,28 +6581,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6603,28 +6627,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6770,10 +6794,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6817,28 +6841,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6863,28 +6887,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7233,10 +7257,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7280,28 +7304,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7326,28 +7350,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7435,10 +7459,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7482,28 +7506,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7528,28 +7552,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7666,10 +7690,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7713,28 +7737,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7759,28 +7783,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7897,10 +7921,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="2" t="s">
+      <c r="J269" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7944,28 +7968,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="2">
+      <c r="A271" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="2">
+      <c r="C271" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7990,28 +8014,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="2">
+      <c r="C273" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="2">
+      <c r="D273" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="2">
+      <c r="I273" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8099,10 +8123,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
